--- a/Data/researcher_data/PLANILHA_CONSOLIDADA.xlsx
+++ b/Data/researcher_data/PLANILHA_CONSOLIDADA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pos_Doc_Sinbiose\ReefSYN_data\Data\researcher_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92CD2335-5FFD-4C75-8319-EFEBDE043F3A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24D0AC7D-D72C-478A-8C0F-B9CC6E16612B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="8250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1261,7 +1261,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1289,6 +1289,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
@@ -1510,7 +1511,7 @@
   <dimension ref="A1:AC999"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1897,11 +1898,11 @@
       <c r="C5" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D5" s="9">
-        <v>-33.827793999999997</v>
-      </c>
-      <c r="E5" s="9">
-        <v>150.99291700000001</v>
+      <c r="D5" s="19">
+        <v>-31.952311999999999</v>
+      </c>
+      <c r="E5" s="19">
+        <v>115.86130900000001</v>
       </c>
       <c r="F5" s="16" t="s">
         <v>377</v>
@@ -1984,11 +1985,11 @@
       <c r="C6" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="D6" s="9">
-        <v>-33.827793999999997</v>
-      </c>
-      <c r="E6" s="9">
-        <v>150.99291700000001</v>
+      <c r="D6" s="19">
+        <v>-31.952311999999999</v>
+      </c>
+      <c r="E6" s="19">
+        <v>115.86130900000001</v>
       </c>
       <c r="F6" s="16" t="s">
         <v>377</v>
@@ -2071,11 +2072,11 @@
       <c r="C7" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="D7" s="9">
-        <v>-33.827793999999997</v>
-      </c>
-      <c r="E7" s="9">
-        <v>150.99291700000001</v>
+      <c r="D7" s="19">
+        <v>-31.952311999999999</v>
+      </c>
+      <c r="E7" s="19">
+        <v>115.86130900000001</v>
       </c>
       <c r="F7" s="16" t="s">
         <v>377</v>
@@ -2158,11 +2159,11 @@
       <c r="C8" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="D8" s="9">
-        <v>-33.827793999999997</v>
-      </c>
-      <c r="E8" s="9">
-        <v>150.99291700000001</v>
+      <c r="D8" s="19">
+        <v>-31.952311999999999</v>
+      </c>
+      <c r="E8" s="19">
+        <v>115.86130900000001</v>
       </c>
       <c r="F8" s="16" t="s">
         <v>377</v>
@@ -2245,11 +2246,11 @@
       <c r="C9" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="D9" s="9">
-        <v>-33.827793999999997</v>
-      </c>
-      <c r="E9" s="9">
-        <v>150.99291700000001</v>
+      <c r="D9" s="19">
+        <v>-31.952311999999999</v>
+      </c>
+      <c r="E9" s="19">
+        <v>115.86130900000001</v>
       </c>
       <c r="F9" s="16" t="s">
         <v>377</v>
@@ -2332,11 +2333,11 @@
       <c r="C10" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="D10" s="9">
-        <v>-33.827793999999997</v>
-      </c>
-      <c r="E10" s="9">
-        <v>150.99291700000001</v>
+      <c r="D10" s="19">
+        <v>-31.952311999999999</v>
+      </c>
+      <c r="E10" s="19">
+        <v>115.86130900000001</v>
       </c>
       <c r="F10" s="16" t="s">
         <v>377</v>
@@ -4367,10 +4368,10 @@
       <c r="R34" s="6">
         <v>1</v>
       </c>
-      <c r="S34" s="19" t="s">
+      <c r="S34" s="20" t="s">
         <v>318</v>
       </c>
-      <c r="T34" s="20"/>
+      <c r="T34" s="21"/>
       <c r="U34" s="1"/>
       <c r="V34" s="1"/>
       <c r="W34" s="1"/>
